--- a/start_dir/conf.xlsx
+++ b/start_dir/conf.xlsx
@@ -4,42 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="conf" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>第一列</t>
-  </si>
-  <si>
-    <t>第二列</t>
-  </si>
-  <si>
-    <t>第三列</t>
-  </si>
-  <si>
-    <t>第四列</t>
-  </si>
-  <si>
-    <t>第一行</t>
-  </si>
-  <si>
-    <t>第二行</t>
-  </si>
-  <si>
-    <t>第三行</t>
-  </si>
-  <si>
-    <t>第四行</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>表格名</t>
+  </si>
+  <si>
+    <t>匹配工作表</t>
+  </si>
+  <si>
+    <t>匹配列</t>
+  </si>
+  <si>
+    <t>填充列</t>
+  </si>
+  <si>
+    <t>扫描表格</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Desktop\测试表格\表格A.xlsx</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>全集表格</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Desktop\测试表格\表格B.xlsx</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>7,9</t>
   </si>
 </sst>
 </file>
@@ -47,12 +63,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +77,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -68,46 +152,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,33 +194,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,7 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -174,41 +214,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,11 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,7 +443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +475,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -477,38 +507,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,148 +526,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,15 +1023,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,25 +1051,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1061,38 +1094,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/start_dir/conf.xlsx
+++ b/start_dir/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="conf" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>项目名称</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>填充列</t>
+  </si>
+  <si>
+    <t>扫描表格起始结束行</t>
+  </si>
+  <si>
+    <t>全集起始结束行</t>
   </si>
   <si>
     <t>扫描表格</t>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,9 +83,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +149,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,15 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,54 +167,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +199,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,52 +430,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,9 +471,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +488,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,16 +547,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,115 +565,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,22 +1029,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,39 +1062,57 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/start_dir/conf.xlsx
+++ b/start_dir/conf.xlsx
@@ -46,10 +46,10 @@
     <t>Sheet1</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>8,10</t>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>全集表格</t>
@@ -58,10 +58,10 @@
     <t>C:\Users\Admin\Desktop\测试表格\表格B.xlsx</t>
   </si>
   <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>7,9</t>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
   </si>
 </sst>
 </file>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -91,14 +99,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +143,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,102 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +441,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +489,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,21 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/start_dir/conf.xlsx
+++ b/start_dir/conf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>项目名称</t>
   </si>
@@ -46,10 +46,7 @@
     <t>Sheet1</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
+    <t>1,2,3,4</t>
   </si>
   <si>
     <t>全集表格</t>
@@ -58,10 +55,7 @@
     <t>C:\Users\Admin\Desktop\测试表格\表格B.xlsx</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>2,4,6</t>
+    <t>1,10,2,4</t>
   </si>
 </sst>
 </file>
@@ -69,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +77,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -91,8 +130,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +147,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,6 +168,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,100 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,30 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,41 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +462,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1026,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1079,11 +1073,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1094,19 +1088,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>0</v>
